--- a/test_objects.xlsx
+++ b/test_objects.xlsx
@@ -446,150 +446,150 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Blogsdaseguire</t>
+          <t>kkarhan</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>45165.41216435185</v>
+        <v>45168.05861111111</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Per sostenere il progetto #OneHealton: la rete della #salute, puoi effettuare una #donazione entro il 24 settembre con una chiamata da rete fissa al #numerosolidale 45598 (da 5 a 10 €) o inviando un #SMS allo stesso numero (2 €).Scopri il progetto:https://www.infodonazione.it/one-healton-la-campagna-solidale-per-la-rete-della-salute/</t>
+          <t>@10volt @thatguyoverthere @BrodieOnLinux #iTAN are numerized, pre-generated TANs that get requested for randomized 2FA...https://en.wikipedia.org/wiki/Transaction_authentication_number#Indexed_TAN_(iTAN)And no, #TOTP / #HOTP &amp; #SMS-#TAN are NOT practical for numerous reasons I CANNOT disclose...https://mstdn.social/@kkarhan/110975936045776700</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>narF</t>
+          <t>elfin</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45165.01078703703</v>
+        <v>45167.07768518518</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>But I hate that email and SMS both feel stuck in the past and are so much more difficult to use compared to Facebook Messenger or Discord or Whatsapp. The only solution I found for myself is to make my own website and put everything there (https://blogue.narf.ca/accueil), but even then, I don't want to display stuff like my private email and phone number because I'm afraid of spam.#spam #email #SMS</t>
+          <t>I'd like much better #search #functions in my #SMS apps rather than syncing it to my #IMAP server and using Thunderbird (meh) or Perl / #RegEx from #BASH to find something important from a non-regular sender six months ago that is suddenly necessary again.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>narF</t>
+          <t>richardnosworthy</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45165.0045949074</v>
+        <v>45166.65788194445</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Basically, this idea for a federated and decentralized contact book aims at addressing the shortcoming of emails and SMS. The beauty of email and SMS, and the reason why governments and companies always ask for an email or a phone number, is that it's universal. Everybody has one!And it's not tied to a specific company, so everyone has the freedom to pick a provider (unlike in some countries where everything goes through Whatsapp or WeChat.#federatedProfile #decentralizedIdentity #email #SMS</t>
+          <t>Triais i anfon neges destun o flwch ffôn. Mae'n ymddangos nad yw'r system yn gweithio bellach.Looks like you can no longer send SMS from a BT payphone.#PayPhones #sms #textmessaging #phoneboxes #phonebooths</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>realcaseyrollins</t>
+          <t>volcanloup</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45163.93355509259</v>
+        <v>45166.44958333333</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mom: My texts keep switching from #SMS to #MMS to #RSSMe: No, that’s #RCS! #RSS is for #XML and #Atom formatted feeds!Mom: Whatever!</t>
+          <t>To speed up gameplay, we added a dash move by double-tapping a direction (or a dedicated button if available). It can also be combined with attacks!   #sms #mastersystem #8bit #retrogaming</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>glebris</t>
+          <t>lazyq2</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45163.91303240741</v>
+        <v>45166.16894603009</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>It has been 10 years already since my article on airfield safety during construction made the cover of FSF's AeroSafety World magazine: https://flightsafety.org/asw-article/working-safely-on-an-operative-runway/.What has been done since then? Here is a short version of what we did to further improve operational #safety: https://skybrary.aero/sites/default/files/bookshelf/5931.pdf.#airports #airtravel #aviation #safetyfirst #sms #safetymanagement</t>
+          <t>Someone who is smarter than me please point out the flaws in my plan, if any.#security #infosec #email #2fa #SMS #privacy</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mrjhnsn</t>
+          <t>Blogsdaseguire</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45163.86497685185</v>
+        <v>45165.41216435185</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Very good looking #SMish via #SMS faking as USPS and hosting their #phishing domain on @digitalocean</t>
+          <t>Per sostenere il progetto #OneHealton: la rete della #salute, puoi effettuare una #donazione entro il 24 settembre con una chiamata da rete fissa al #numerosolidale 45598 (da 5 a 10 €) o inviando un #SMS allo stesso numero (2 €).Scopri il progetto:https://www.infodonazione.it/one-healton-la-campagna-solidale-per-la-rete-della-salute/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BenGunn</t>
+          <t>narF</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45163.54946759259</v>
+        <v>45165.01078703703</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nos puede parecer increíble picar en estas cosas pero podemos tener un día tonto o de bajón"Se ha detectado una campaña de smishing en la que a través de un SMS se solicitan tres fotos: dos del DNI y otra del rosto de la víctima (un selfie), fingiendo ser un mensaje de los Servicios Sociales para confirmar un expediente."https://www.incibe.es/ciudadania/avisos/servicios-sociales-no-esta-solicitando-fotos-de-tu-dni-ni-selfies-traves-de-sms#incibe #fraude #sms</t>
+          <t>But I hate that email and SMS both feel stuck in the past and are so much more difficult to use compared to Facebook Messenger or Discord or Whatsapp. The only solution I found for myself is to make my own website and put everything there (https://blogue.narf.ca/accueil), but even then, I don't want to display stuff like my private email and phone number because I'm afraid of spam.#spam #email #SMS</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>secbox</t>
+          <t>narF</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45162.86478009259</v>
+        <v>45165.0045949074</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>@jeber @fight Gotta admit I will probably always default to @signalapp, but #E2EE #RCS should replace #SMS for sure.</t>
+          <t>Basically, this idea for a federated and decentralized contact book aims at addressing the shortcoming of emails and SMS. The beauty of email and SMS, and the reason why governments and companies always ask for an email or a phone number, is that it's universal. Everybody has one!And it's not tied to a specific company, so everyone has the freedom to pick a provider (unlike in some countries where everything goes through Whatsapp or WeChat.#federatedProfile #decentralizedIdentity #email #SMS</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>larampa</t>
+          <t>realcaseyrollins</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45162.55261054398</v>
+        <v>45163.93355509259</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>#Redditocittadinanza, in arrivo altri 32mila #sms di #stophttps://www.larampa.it/2023/08/reddito-cittadinanza-in-arrivo-altri-32mila-sms-di-stop/</t>
+          <t>Mom: My texts keep switching from #SMS to #MMS to #RSSMe: No, that’s #RCS! #RSS is for #XML and #Atom formatted feeds!Mom: Whatever!</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dispatch</t>
+          <t>glebris</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45162.04171296296</v>
+        <v>45163.91303240741</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Smashing Security podcast #336: Pizza pests, and securing your wearables https://grahamcluley.com/smashing-security-podcast-336/ #SmashingSecurity #Securitythreats #wearables #delivery #Podcast #Privacy #Mobile #pizza #ico #SMS</t>
+          <t>It has been 10 years already since my article on airfield safety during construction made the cover of FSF's AeroSafety World magazine: https://flightsafety.org/asw-article/working-safely-on-an-operative-runway/.What has been done since then? Here is a short version of what we did to further improve operational #safety: https://skybrary.aero/sites/default/files/bookshelf/5931.pdf.#airports #airtravel #aviation #safetyfirst #sms #safetymanagement</t>
         </is>
       </c>
     </row>

--- a/test_objects.xlsx
+++ b/test_objects.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -49,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -427,173 +423,4 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>kkarhan</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>45168.05861111111</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>@10volt @thatguyoverthere @BrodieOnLinux #iTAN are numerized, pre-generated TANs that get requested for randomized 2FA...https://en.wikipedia.org/wiki/Transaction_authentication_number#Indexed_TAN_(iTAN)And no, #TOTP / #HOTP &amp; #SMS-#TAN are NOT practical for numerous reasons I CANNOT disclose...https://mstdn.social/@kkarhan/110975936045776700</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>elfin</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>45167.07768518518</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>I'd like much better #search #functions in my #SMS apps rather than syncing it to my #IMAP server and using Thunderbird (meh) or Perl / #RegEx from #BASH to find something important from a non-regular sender six months ago that is suddenly necessary again.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>richardnosworthy</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45166.65788194445</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Triais i anfon neges destun o flwch ffôn. Mae'n ymddangos nad yw'r system yn gweithio bellach.Looks like you can no longer send SMS from a BT payphone.#PayPhones #sms #textmessaging #phoneboxes #phonebooths</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>volcanloup</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45166.44958333333</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>To speed up gameplay, we added a dash move by double-tapping a direction (or a dedicated button if available). It can also be combined with attacks!   #sms #mastersystem #8bit #retrogaming</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>lazyq2</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45166.16894603009</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Someone who is smarter than me please point out the flaws in my plan, if any.#security #infosec #email #2fa #SMS #privacy</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Blogsdaseguire</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45165.41216435185</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Per sostenere il progetto #OneHealton: la rete della #salute, puoi effettuare una #donazione entro il 24 settembre con una chiamata da rete fissa al #numerosolidale 45598 (da 5 a 10 €) o inviando un #SMS allo stesso numero (2 €).Scopri il progetto:https://www.infodonazione.it/one-healton-la-campagna-solidale-per-la-rete-della-salute/</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>narF</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45165.01078703703</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>But I hate that email and SMS both feel stuck in the past and are so much more difficult to use compared to Facebook Messenger or Discord or Whatsapp. The only solution I found for myself is to make my own website and put everything there (https://blogue.narf.ca/accueil), but even then, I don't want to display stuff like my private email and phone number because I'm afraid of spam.#spam #email #SMS</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>narF</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45165.0045949074</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Basically, this idea for a federated and decentralized contact book aims at addressing the shortcoming of emails and SMS. The beauty of email and SMS, and the reason why governments and companies always ask for an email or a phone number, is that it's universal. Everybody has one!And it's not tied to a specific company, so everyone has the freedom to pick a provider (unlike in some countries where everything goes through Whatsapp or WeChat.#federatedProfile #decentralizedIdentity #email #SMS</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>realcaseyrollins</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45163.93355509259</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Mom: My texts keep switching from #SMS to #MMS to #RSSMe: No, that’s #RCS! #RSS is for #XML and #Atom formatted feeds!Mom: Whatever!</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>glebris</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45163.91303240741</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>It has been 10 years already since my article on airfield safety during construction made the cover of FSF's AeroSafety World magazine: https://flightsafety.org/asw-article/working-safely-on-an-operative-runway/.What has been done since then? Here is a short version of what we did to further improve operational #safety: https://skybrary.aero/sites/default/files/bookshelf/5931.pdf.#airports #airtravel #aviation #safetyfirst #sms #safetymanagement</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>